--- a/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>360807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>336302</v>
+        <v>333667</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>387202</v>
+        <v>387665</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.484182049034336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4512987251489483</v>
+        <v>0.4477621357909062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5196034874124273</v>
+        <v>0.5202238713781259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>469</v>
@@ -762,19 +762,19 @@
         <v>533342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>503892</v>
+        <v>500563</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>566138</v>
+        <v>565879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5415025228658396</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5116022248125768</v>
+        <v>0.5082219264575345</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5748006829362644</v>
+        <v>0.5745370583510521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>843</v>
@@ -783,19 +783,19 @@
         <v>894148</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>851095</v>
+        <v>854439</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>935386</v>
+        <v>937339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5168137288917228</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4919294409146541</v>
+        <v>0.4938618059669833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5406488701260262</v>
+        <v>0.5417778119880136</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>115624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96378</v>
+        <v>96278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136049</v>
+        <v>136084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1551606250282587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1293336910819161</v>
+        <v>0.1291991415333487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1825703685198438</v>
+        <v>0.1826165703638327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -833,19 +833,19 @@
         <v>166794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>144888</v>
+        <v>142975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>193058</v>
+        <v>192009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1693459008356887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1471049704485948</v>
+        <v>0.1451625358623054</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1960121866150259</v>
+        <v>0.1949470334255868</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>267</v>
@@ -854,19 +854,19 @@
         <v>282418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>253879</v>
+        <v>250164</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>316090</v>
+        <v>312667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1632360882597295</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1467407674782977</v>
+        <v>0.1445938117521753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1826987828273589</v>
+        <v>0.1807200955552865</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>120777</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101359</v>
+        <v>101945</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142647</v>
+        <v>141650</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1620764859162922</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1360178645690102</v>
+        <v>0.1368044417314889</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1914241255359045</v>
+        <v>0.1900863281417468</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>121</v>
@@ -904,19 +904,19 @@
         <v>132254</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111812</v>
+        <v>110533</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>156979</v>
+        <v>154713</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1342779328315405</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1135225506535769</v>
+        <v>0.1122242141146626</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1593804426871971</v>
+        <v>0.1570797821622017</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>239</v>
@@ -925,19 +925,19 @@
         <v>253032</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>224205</v>
+        <v>224614</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>285607</v>
+        <v>285103</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1462511895758136</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1295897136776939</v>
+        <v>0.1298256878417757</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1650795765435931</v>
+        <v>0.1647883382994501</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>83672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67351</v>
+        <v>67725</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102900</v>
+        <v>103017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1122832948874384</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09038137696923235</v>
+        <v>0.09088350690589614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1380864593321891</v>
+        <v>0.1382424242605718</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -975,19 +975,19 @@
         <v>94834</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75684</v>
+        <v>75369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115347</v>
+        <v>114080</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09628508693278078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07684191739976301</v>
+        <v>0.0765222999630745</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1171120977683155</v>
+        <v>0.1158250784902967</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -996,19 +996,19 @@
         <v>178506</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>154086</v>
+        <v>152450</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203471</v>
+        <v>204593</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1031757567710775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08906112723070014</v>
+        <v>0.08811520951171871</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1176051325360091</v>
+        <v>0.1182539768592811</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>64308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48633</v>
+        <v>50221</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80487</v>
+        <v>82753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08629754513367464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06526265554287111</v>
+        <v>0.06739426796894445</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1080091699273541</v>
+        <v>0.1110504759512388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -1046,19 +1046,19 @@
         <v>57706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43893</v>
+        <v>43986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>75215</v>
+        <v>76107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05858855653415052</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04456433680425549</v>
+        <v>0.0446588697500197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07636560175588891</v>
+        <v>0.07727181991228965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -1067,19 +1067,19 @@
         <v>122013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>102322</v>
+        <v>102714</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>143487</v>
+        <v>147091</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07052323650165657</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0591419135442325</v>
+        <v>0.05936817921396475</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.082935099771135</v>
+        <v>0.08501816424223149</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>519966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>479107</v>
+        <v>482059</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>560163</v>
+        <v>564977</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2517496432238507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2319672845224738</v>
+        <v>0.233396346696465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2712115472487637</v>
+        <v>0.2735422954704759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>536</v>
@@ -1192,19 +1192,19 @@
         <v>579674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>535867</v>
+        <v>540486</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>619592</v>
+        <v>621865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2932198568053504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2710611022074285</v>
+        <v>0.2733974324131724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3134119772503561</v>
+        <v>0.3145617526272655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1018</v>
@@ -1213,19 +1213,19 @@
         <v>1099639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1044083</v>
+        <v>1043550</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1156217</v>
+        <v>1153822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2720308718064031</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2582873007835703</v>
+        <v>0.2581553089191029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2860270688040259</v>
+        <v>0.2854346041862831</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>312384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278043</v>
+        <v>281281</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>346791</v>
+        <v>344523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1512457946570819</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1346187162675054</v>
+        <v>0.1361863535357865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1679041664838612</v>
+        <v>0.166806373132446</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -1263,19 +1263,19 @@
         <v>301669</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>271209</v>
+        <v>269908</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>336326</v>
+        <v>333346</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1525951952993167</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1371875195637349</v>
+        <v>0.1365291428195018</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1701259421801354</v>
+        <v>0.1686185705637403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>579</v>
@@ -1284,19 +1284,19 @@
         <v>614054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>567941</v>
+        <v>567991</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659160</v>
+        <v>660584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1519057262202706</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1404983144260019</v>
+        <v>0.1405107047049867</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1630642872974055</v>
+        <v>0.1634165926963278</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>396274</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>361317</v>
+        <v>361568</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>432278</v>
+        <v>435488</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1918624402863308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1749371558554486</v>
+        <v>0.1750588173589246</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2092940170125513</v>
+        <v>0.2108482378296843</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>363</v>
@@ -1334,19 +1334,19 @@
         <v>372864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>334567</v>
+        <v>340785</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>408447</v>
+        <v>409027</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1886081906525515</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1692363129216327</v>
+        <v>0.1723813061518423</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2066072305625109</v>
+        <v>0.2069004723605892</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>742</v>
@@ -1355,19 +1355,19 @@
         <v>769138</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>718543</v>
+        <v>721320</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>815690</v>
+        <v>821868</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.190270932189618</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1777544674653039</v>
+        <v>0.1784415100026185</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2017868185400478</v>
+        <v>0.2033152962422317</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>443521</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>405832</v>
+        <v>402202</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>481845</v>
+        <v>480169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2147375078209966</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1964898740613149</v>
+        <v>0.1947323469425279</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2332929659139172</v>
+        <v>0.2324812264325833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>371</v>
@@ -1405,19 +1405,19 @@
         <v>377902</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>339613</v>
+        <v>345438</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>410927</v>
+        <v>410136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1911566120128142</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.171788550942315</v>
+        <v>0.1747351400092882</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2078617504485308</v>
+        <v>0.207461488366113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>793</v>
@@ -1426,19 +1426,19 @@
         <v>821423</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>770993</v>
+        <v>767544</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>871194</v>
+        <v>872798</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.203205145270531</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1907298028780609</v>
+        <v>0.1898764150680894</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2155176398149448</v>
+        <v>0.2159144991418681</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>393263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355364</v>
+        <v>357575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>428391</v>
+        <v>427492</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.19040461401174</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1720551161723978</v>
+        <v>0.173125691286026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2074122614466317</v>
+        <v>0.2069771067535356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -1476,19 +1476,19 @@
         <v>344816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>313069</v>
+        <v>310249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>380049</v>
+        <v>380310</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1744201452299672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1583615579409123</v>
+        <v>0.1569350811784661</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1922427208413178</v>
+        <v>0.1923744383019692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>708</v>
@@ -1497,19 +1497,19 @@
         <v>738079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>692856</v>
+        <v>692484</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>792453</v>
+        <v>786854</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1825873245131773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.171400153371725</v>
+        <v>0.1713080614680594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1960384621282485</v>
+        <v>0.1946535441840312</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>183748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160238</v>
+        <v>161508</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208789</v>
+        <v>208989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3379096998551419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2946758092843038</v>
+        <v>0.2970114169350375</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3839609546932651</v>
+        <v>0.3843285274550881</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>168</v>
@@ -1622,19 +1622,19 @@
         <v>184359</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>163125</v>
+        <v>162138</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>207015</v>
+        <v>208670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3364391671185144</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2976878236993203</v>
+        <v>0.2958871240907993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.377784482036257</v>
+        <v>0.380803705558514</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>330</v>
@@ -1643,19 +1643,19 @@
         <v>368107</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>337673</v>
+        <v>339774</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>399776</v>
+        <v>404483</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3371716084522863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3092956351292949</v>
+        <v>0.3112198164908235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3661792577681964</v>
+        <v>0.3704909384720176</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>100671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82423</v>
+        <v>84895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119646</v>
+        <v>122460</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1851320776929407</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1515750290855499</v>
+        <v>0.1561213698281469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2200280211083367</v>
+        <v>0.2252035276526575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -1693,19 +1693,19 @@
         <v>116713</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98194</v>
+        <v>100777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>136348</v>
+        <v>137168</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2129905204565034</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1791957440954639</v>
+        <v>0.1839097656266126</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2488223754544317</v>
+        <v>0.2503188580596835</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -1714,19 +1714,19 @@
         <v>217383</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>192225</v>
+        <v>192586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>245997</v>
+        <v>247750</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1991148178173704</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1760710666791004</v>
+        <v>0.1764013642264375</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2253237229109335</v>
+        <v>0.2269291694207622</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>95736</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76649</v>
+        <v>77470</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>113708</v>
+        <v>114030</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1760576536774696</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1409575331637997</v>
+        <v>0.1424660989828622</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2091073061663062</v>
+        <v>0.2096990613873145</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>93</v>
@@ -1764,19 +1764,19 @@
         <v>95082</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77173</v>
+        <v>77400</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>114100</v>
+        <v>114015</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1735166408245821</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1408347079967206</v>
+        <v>0.1412475911939156</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2082216569425486</v>
+        <v>0.2080672886075279</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>182</v>
@@ -1785,19 +1785,19 @@
         <v>190818</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>164658</v>
+        <v>166064</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>218734</v>
+        <v>218021</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1747822657214266</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1508208208973318</v>
+        <v>0.1521078067281276</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2003522089804419</v>
+        <v>0.1996990368365736</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>97215</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79550</v>
+        <v>78870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>115005</v>
+        <v>115958</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1787778551117883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1462915155940851</v>
+        <v>0.1450415252460887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.211493602078934</v>
+        <v>0.2132448568313309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -1835,19 +1835,19 @@
         <v>89007</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71379</v>
+        <v>70909</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106107</v>
+        <v>106345</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1624305974436964</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1302607231777893</v>
+        <v>0.1294025790326193</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1936365281646963</v>
+        <v>0.1940699409390986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>182</v>
@@ -1856,19 +1856,19 @@
         <v>186223</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>160293</v>
+        <v>162166</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>210711</v>
+        <v>213020</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1705728216266076</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.146822010170936</v>
+        <v>0.1485379812495597</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1930030614339763</v>
+        <v>0.1951182663248153</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>66408</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>51642</v>
+        <v>53074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82227</v>
+        <v>84717</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1221227136626595</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09496963887503367</v>
+        <v>0.09760300713727611</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1512148930622562</v>
+        <v>0.1557931107145651</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -1906,19 +1906,19 @@
         <v>62810</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48645</v>
+        <v>48903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78496</v>
+        <v>79356</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1146230741567037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08877276030218396</v>
+        <v>0.08924404911965908</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1432488424085525</v>
+        <v>0.1448175995024482</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>128</v>
@@ -1927,19 +1927,19 @@
         <v>129218</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>108178</v>
+        <v>108170</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151258</v>
+        <v>150544</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.118358486382309</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09908650892028427</v>
+        <v>0.09907922782615787</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1385467665778835</v>
+        <v>0.1378924937832298</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>1064520</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1007792</v>
+        <v>1010595</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1118923</v>
+        <v>1119561</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3173528391272147</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3004413758395101</v>
+        <v>0.3012769428215288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3335713213715479</v>
+        <v>0.3337615940376421</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1173</v>
@@ -2052,19 +2052,19 @@
         <v>1297375</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1241076</v>
+        <v>1239434</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1357039</v>
+        <v>1354358</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.369640716164662</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3536003397269789</v>
+        <v>0.3531325248464521</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.386639950194502</v>
+        <v>0.3858762426923046</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2191</v>
@@ -2073,19 +2073,19 @@
         <v>2361894</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2277061</v>
+        <v>2285913</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2439447</v>
+        <v>2441894</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3440888559349041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3317300221685904</v>
+        <v>0.333019576963608</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3553870296743236</v>
+        <v>0.3557434777466259</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>528679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>484700</v>
+        <v>486185</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>573756</v>
+        <v>577176</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1576087900469194</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1444978190906802</v>
+        <v>0.1449407513274287</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1710470469949315</v>
+        <v>0.1720667067542066</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>551</v>
@@ -2123,19 +2123,19 @@
         <v>585176</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>538848</v>
+        <v>541093</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>628253</v>
+        <v>631836</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1667250103514505</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1535256261067721</v>
+        <v>0.1541651738817012</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1789984092300546</v>
+        <v>0.180019147943719</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1047</v>
@@ -2144,19 +2144,19 @@
         <v>1113854</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1047984</v>
+        <v>1058426</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1177251</v>
+        <v>1178708</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1622701271119141</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.152673906660511</v>
+        <v>0.1541951596457429</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.171505900943362</v>
+        <v>0.1717181785229834</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>612788</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>567937</v>
+        <v>565406</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>657200</v>
+        <v>655663</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1826832581270953</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1693123556256191</v>
+        <v>0.1685580089102926</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1959233013186813</v>
+        <v>0.1954651704940329</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>577</v>
@@ -2194,19 +2194,19 @@
         <v>600201</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>557804</v>
+        <v>556992</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>646634</v>
+        <v>650119</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1710058297719321</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1589263472922625</v>
+        <v>0.1586949998374995</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1842354656928805</v>
+        <v>0.1852283273035651</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1163</v>
@@ -2215,19 +2215,19 @@
         <v>1212988</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1149367</v>
+        <v>1148223</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1279196</v>
+        <v>1280478</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.17671231536821</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1674437564726839</v>
+        <v>0.1672769962049562</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1863576040127627</v>
+        <v>0.1865443441389268</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>624408</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>579262</v>
+        <v>581269</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>670642</v>
+        <v>668806</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1861474747823793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1726886136387476</v>
+        <v>0.1732870580984435</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1999306103940062</v>
+        <v>0.1993833167421828</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>549</v>
@@ -2265,19 +2265,19 @@
         <v>561744</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>520202</v>
+        <v>516947</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>607982</v>
+        <v>605852</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1600488532175725</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1482129724095898</v>
+        <v>0.147285718460246</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1732228479596758</v>
+        <v>0.1726160760814335</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1147</v>
@@ -2286,19 +2286,19 @@
         <v>1186152</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1122930</v>
+        <v>1123422</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1243771</v>
+        <v>1247562</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1728026379989989</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1635922255720233</v>
+        <v>0.163664003018765</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1811968819286273</v>
+        <v>0.1817491529491837</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>523979</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>481932</v>
+        <v>481897</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>568026</v>
+        <v>568419</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1562076379163913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1436728458495532</v>
+        <v>0.1436622850221168</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1693389257098676</v>
+        <v>0.1694560845393181</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>458</v>
@@ -2336,19 +2336,19 @@
         <v>465331</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>424227</v>
+        <v>424674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>502833</v>
+        <v>503410</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1325795904943828</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1208684053539452</v>
+        <v>0.1209957475651841</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1432644516915795</v>
+        <v>0.1434287087493719</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>953</v>
@@ -2357,19 +2357,19 @@
         <v>989310</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>935794</v>
+        <v>934828</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1052816</v>
+        <v>1050469</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1441260635859729</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1363297314654682</v>
+        <v>0.1361889667773618</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1533779102196114</v>
+        <v>0.1530358731102781</v>
       </c>
     </row>
     <row r="27">
